--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384076.8681731559</v>
+        <v>379362.9572187914</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11023512.48711363</v>
+        <v>11021152.56955196</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>98.8846928303124</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>265.966192852824</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104614885</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>113.5468392857297</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -817,7 +817,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.6943534852749</v>
       </c>
       <c r="U4" t="n">
-        <v>214.0175430895179</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>297.0731662346357</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.8359908816704</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -914,7 +914,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104614885</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>75.28052054775017</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>39.85174807638817</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>356.625935375286</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>115.4253605781932</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>164.8887288238694</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>124.6926731360859</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>96.49920063925255</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>154.6665820828485</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.66414074336925</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>121.6194427153712</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>212.5216620471469</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>241.5353505325787</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
-        <v>11.72631293052607</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.26548511419384</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277494</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383888</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828892</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431724</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459965</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643938</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931849</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908576</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147789</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804993</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922186</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367778</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792051</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -4028,7 +4028,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059262</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1084.051871667071</v>
+        <v>587.2578783484167</v>
       </c>
       <c r="C2" t="n">
-        <v>1084.051871667071</v>
+        <v>587.2578783484167</v>
       </c>
       <c r="D2" t="n">
-        <v>698.610742883739</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E2" t="n">
-        <v>698.610742883739</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>281.7163044137168</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475493</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>699.7556982748544</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>1213.358376884542</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737746</v>
+        <v>1653.397977776871</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023268</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023268</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U2" t="n">
-        <v>1881.037326457867</v>
+        <v>1652.89605319257</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.037326457867</v>
+        <v>1652.89605319257</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.037326457867</v>
+        <v>1652.89605319257</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.037326457867</v>
+        <v>1384.243333139212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1484.546617378468</v>
+        <v>987.7526240598136</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021415</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622337</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083714</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946018</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777336</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777336</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475493</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475493</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>209.0779451028514</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>692.6440310011646</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.902816011257</v>
+        <v>813.5918890426545</v>
       </c>
       <c r="N3" t="n">
-        <v>1769.161601021349</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1624.63702875747</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1402.097027128537</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675956</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431029</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475493</v>
+        <v>397.5651859027533</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475493</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475493</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475493</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475493</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475493</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475493</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475493</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>805.8852657774112</v>
       </c>
       <c r="U4" t="n">
-        <v>728.763345482249</v>
+        <v>805.8852657774112</v>
       </c>
       <c r="V4" t="n">
-        <v>462.7840003030731</v>
+        <v>805.8852657774112</v>
       </c>
       <c r="W4" t="n">
-        <v>462.7840003030731</v>
+        <v>805.8852657774112</v>
       </c>
       <c r="X4" t="n">
-        <v>228.7036780860562</v>
+        <v>805.8852657774112</v>
       </c>
       <c r="Y4" t="n">
-        <v>228.7036780860562</v>
+        <v>582.7732045940545</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.787621585766</v>
+        <v>780.7381845881282</v>
       </c>
       <c r="C5" t="n">
-        <v>1157.612120088697</v>
+        <v>387.5626830910587</v>
       </c>
       <c r="D5" t="n">
-        <v>772.1709913053644</v>
+        <v>387.5626830910587</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370104</v>
+        <v>387.5626830910587</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073922</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L5" t="n">
-        <v>483.8277400569153</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.086525067008</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.89780870447</v>
+        <v>1562.028895694243</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596798</v>
+        <v>2002.068496586571</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>2002.068496586571</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297163</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U5" t="n">
-        <v>1951.282367297163</v>
+        <v>1819.409608251519</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.282367297163</v>
+        <v>1477.302798955038</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.282367297163</v>
+        <v>1477.302798955038</v>
       </c>
       <c r="X5" t="n">
-        <v>1951.282367297163</v>
+        <v>1477.302798955038</v>
       </c>
       <c r="Y5" t="n">
-        <v>1951.282367297163</v>
+        <v>1080.812089875639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021415</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622337</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>375.070220083714</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946018</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777336</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475493</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475493</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569813</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653852</v>
+        <v>921.5731989359448</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>921.5731989359448</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1663.28987596755</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1440.749874338617</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675956</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431029</v>
+        <v>842.0113338974229</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.9426819363074</v>
+        <v>668.6156560946233</v>
       </c>
       <c r="C7" t="n">
-        <v>944.9426819363074</v>
+        <v>498.4105381606125</v>
       </c>
       <c r="D7" t="n">
-        <v>843.5857067984603</v>
+        <v>498.4105381606125</v>
       </c>
       <c r="E7" t="n">
-        <v>688.0268946576628</v>
+        <v>342.851726019815</v>
       </c>
       <c r="F7" t="n">
-        <v>530.7009598706356</v>
+        <v>342.851726019815</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>902.6959783116403</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>902.6959783116403</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>668.6156560946233</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>668.6156560946233</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>575.6101197678981</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="C8" t="n">
-        <v>575.6101197678981</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D8" t="n">
-        <v>575.6101197678981</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>173.0265948844427</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4805,16 +4805,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L8" t="n">
-        <v>758.8032691226673</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1304.804169167248</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1762.048179625637</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W8" t="n">
-        <v>1762.048179625637</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="X8" t="n">
-        <v>1372.595574558694</v>
+        <v>1634.089090713755</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.1048654792951</v>
+        <v>1237.598381634357</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099957</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>343.6705854546174</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="W10" t="n">
-        <v>822.8077975561406</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>588.7274753391237</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.615414155767</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1557.030656569137</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>815.124613155088</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.282650873813</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W11" t="n">
-        <v>2528.079890988294</v>
+        <v>2200.782309456374</v>
       </c>
       <c r="X11" t="n">
-        <v>2210.423561067545</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y11" t="n">
-        <v>1885.72912713434</v>
+        <v>1726.897108744868</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.1926183007853</v>
+        <v>569.5655503012282</v>
       </c>
       <c r="C13" t="n">
-        <v>292.7837755129684</v>
+        <v>471.1567075134113</v>
       </c>
       <c r="D13" t="n">
-        <v>208.946937561677</v>
+        <v>387.31986956212</v>
       </c>
       <c r="E13" t="n">
-        <v>208.946937561677</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208438</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,13 +5203,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1190.760196987303</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457735</v>
+        <v>1190.760196987303</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127918</v>
+        <v>996.5771269543213</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901633</v>
+        <v>996.5771269543213</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193401</v>
+        <v>834.2930798834983</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.1462958193401</v>
+        <v>682.9772938463356</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1615.418592984053</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C14" t="n">
-        <v>1294.039366633177</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D14" t="n">
-        <v>1294.039366633177</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>963.2521168959155</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F14" t="n">
-        <v>618.1539535720872</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G14" t="n">
-        <v>276.7874732062846</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873814</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2556.972116723526</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2257.769356838007</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="X14" t="n">
-        <v>1940.113026917258</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="Y14" t="n">
-        <v>1615.418592984053</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.8305097821778</v>
+        <v>368.0415815981101</v>
       </c>
       <c r="C16" t="n">
-        <v>170.421666994361</v>
+        <v>368.0415815981101</v>
       </c>
       <c r="D16" t="n">
-        <v>170.421666994361</v>
+        <v>284.2047436468191</v>
       </c>
       <c r="E16" t="n">
-        <v>158.5769064584761</v>
+        <v>200.4422066522152</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>114.912547011382</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>114.912547011382</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>114.912547011382</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774624</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581889</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>988.147539845774</v>
+        <v>936.0428256245436</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127921</v>
+        <v>741.8597555915617</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901636</v>
+        <v>530.3256286689332</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193406</v>
+        <v>368.0415815981101</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8305097821778</v>
+        <v>368.0415815981101</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
@@ -5555,10 +5555,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404073</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133175</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445266</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862346</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388014</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958365</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6467,46 +6467,46 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343939</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755555</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414153</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225741</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108101</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230582</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741587</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786168</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.72233542363</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315958</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.22252117455</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>1500.624429827983</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1500.624429827983</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2017.144712418964</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965121</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991866</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431902</v>
+        <v>86.73045008374189</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067497</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076198</v>
+        <v>536.8220577360526</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458838</v>
+        <v>723.1136360743166</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377093</v>
+        <v>982.3291861103348</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395506</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000929</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124407</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584487</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
@@ -6929,7 +6929,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390484</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128482</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445259</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386234</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,13 +7208,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7260,16 +7260,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7409,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7570,16 +7570,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
         <v>974.9038003296507</v>
@@ -7728,19 +7728,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128483</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376787</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>389.6133663309267</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>256.8517693819156</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837485</v>
+        <v>435.0482473062436</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886033</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,13 +8219,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>598.0280491872194</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>218.330861277331</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>210.3493810476996</v>
+        <v>492.8960778890019</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886033</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>417.2510275517577</v>
       </c>
       <c r="L8" t="n">
-        <v>509.3167990170189</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>183.2986537257091</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>577.006990218999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9401,7 +9401,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110188</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046932</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10443,7 +10443,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>224.834151932995</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>459.8553156798577</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N39" t="n">
-        <v>459.8553156798577</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,25 +11139,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>499.3034269858954</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,22 +11376,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715891</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>221.6662334481142</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>166.7809075110244</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.61348536628708</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>40.66410620334499</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>37.24224548729535</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>54.67538175408484</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.19859869413149</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>8.419683600367151</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.181721801112872e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963172.9145358319</v>
+        <v>961969.8193083113</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>963172.9145358319</v>
+        <v>961969.8193083113</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>864348.1914330696</v>
+        <v>864348.1914330699</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>864348.19143307</v>
+        <v>864348.1914330699</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>342631.1383773779</v>
+      </c>
+      <c r="C2" t="n">
         <v>342631.1383773778</v>
       </c>
-      <c r="C2" t="n">
-        <v>342631.1383773779</v>
-      </c>
       <c r="D2" t="n">
-        <v>342631.1383773778</v>
+        <v>342631.1383773777</v>
       </c>
       <c r="E2" t="n">
-        <v>302782.1445063609</v>
+        <v>302782.1445063608</v>
       </c>
       <c r="F2" t="n">
         <v>302782.1445063608</v>
       </c>
       <c r="G2" t="n">
+        <v>342631.1383773781</v>
+      </c>
+      <c r="H2" t="n">
         <v>342631.1383773782</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>342631.138377378</v>
-      </c>
-      <c r="I2" t="n">
-        <v>342631.1383773781</v>
       </c>
       <c r="J2" t="n">
         <v>342631.1383773779</v>
@@ -26341,13 +26341,13 @@
         <v>342631.1383773781</v>
       </c>
       <c r="L2" t="n">
-        <v>342631.1383773783</v>
+        <v>342631.1383773781</v>
       </c>
       <c r="M2" t="n">
         <v>342631.1383773781</v>
       </c>
       <c r="N2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773782</v>
       </c>
       <c r="O2" t="n">
         <v>342631.1383773781</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539681</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962299</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327257</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26427,16 +26427,16 @@
         <v>125701.6674923646</v>
       </c>
       <c r="F4" t="n">
-        <v>125701.6674923646</v>
+        <v>125701.6674923645</v>
       </c>
       <c r="G4" t="n">
+        <v>173460.5839839467</v>
+      </c>
+      <c r="H4" t="n">
+        <v>173460.5839839467</v>
+      </c>
+      <c r="I4" t="n">
         <v>173460.5839839468</v>
-      </c>
-      <c r="H4" t="n">
-        <v>173460.5839839468</v>
-      </c>
-      <c r="I4" t="n">
-        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116943.0205385147</v>
+        <v>-112591.5747242199</v>
       </c>
       <c r="C6" t="n">
-        <v>65261.92775334103</v>
+        <v>61267.08230983496</v>
       </c>
       <c r="D6" t="n">
-        <v>58093.60673166945</v>
+        <v>50357.31750827786</v>
       </c>
       <c r="E6" t="n">
-        <v>11771.89584011123</v>
+        <v>11562.16429342155</v>
       </c>
       <c r="F6" t="n">
-        <v>123894.4573141557</v>
+        <v>123684.7257674662</v>
       </c>
       <c r="G6" t="n">
-        <v>63575.45954122973</v>
+        <v>63575.45954122977</v>
       </c>
       <c r="H6" t="n">
-        <v>111000.7850779116</v>
+        <v>111000.7850779118</v>
       </c>
       <c r="I6" t="n">
-        <v>111000.7850779117</v>
+        <v>111000.7850779115</v>
       </c>
       <c r="J6" t="n">
-        <v>-102041.1325193739</v>
+        <v>-95524.84736480072</v>
       </c>
       <c r="K6" t="n">
         <v>104761.0166751287</v>
       </c>
       <c r="L6" t="n">
-        <v>49578.42774050769</v>
+        <v>45529.5905300353</v>
       </c>
       <c r="M6" t="n">
-        <v>68799.95561828872</v>
+        <v>67748.2606071005</v>
       </c>
       <c r="N6" t="n">
         <v>111000.7850779117</v>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095199</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
+        <v>34.70961755346404</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924602</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287433</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.526512829121202e-14</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.70961755346401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660703</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.0235120155133</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,10 +27388,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>310.1464351265644</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27442,7 +27442,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>119.5918861634497</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925622</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>94.41567260241486</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>97.66750782817326</v>
       </c>
       <c r="U4" t="n">
-        <v>68.56686075100021</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>99.41663201964724</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>156.7216987529505</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270535</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>132.6819913403944</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>223.4678036509958</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>39.86386287899694</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27859,13 +27859,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>297.3001335071288</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>117.6956750166486</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>155.8044249120482</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2979821082787</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,40 +28956,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>35.71049010668821</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>128.297982108279</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>28.0125002648524</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,25 +29296,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901317</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>86.65052755599584</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566335</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>81.1080814089313</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861253887</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>76.79385455031218</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,11 +30165,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
@@ -30177,10 +30177,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>28.012500264853</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,11 +30402,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>28.01250026485255</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30481,7 +30481,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30642,19 +30642,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
@@ -30876,22 +30876,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>28.01250026485243</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135823</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>239.3119190900015</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>167.2548340485823</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344366</v>
+        <v>342.6611252569317</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>444.7798794567277</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>73.83216285893882</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9622589983877</v>
+        <v>400.50895583969</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="L8" t="n">
-        <v>356.0686292865271</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>93.7017183923758</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184312</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317814</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>316.471293561071</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.46926427500488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851022</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36835,25 +36835,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>638.1665882070873</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>448.881352397443</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>267.8207684199904</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273774</v>
+        <v>75.16693519537677</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553813</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>137.7507871136803</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791194</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993488</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>261.833888925271</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>374.483202825691</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,10 +37473,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>213.0525346398118</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N39" t="n">
-        <v>374.483202825691</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>213.0525346398113</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37859,25 +37859,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>192.3607498019313</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
